--- a/pred_ohlcv/54_21/2020-01-24 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 XRP ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>37878.66844443</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>188670.35354443</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>172158.80274443</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>184066.81104443</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>219213.01054443</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>223366.31054443</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>319097.70254443</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>318948.05324443</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>315645.86014443</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>316234.12474443</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>338315.61964443</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>331307.63264443</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>315434.69814443</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>346082.14924443</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>346082.14924443</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>300130.75374443</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>322808.81950414</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>361160.87340414</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>360891.60440414</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>360891.60440414</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>340263.88540414</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>340263.88540414</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>260755.41600414</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>263141.61770414</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>251640.61770414</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>255762.24294488</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>255762.24294488</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>254325.36154488</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>255704.21084488</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>239997.53214488</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>239997.53214488</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>239997.53214488</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>252717.11224488</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>252717.11224488</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>249642.11174488</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>251486.63654488</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>251486.63654488</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>236372.18554488</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>271667.71614488</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>369298.6514448801</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>437823.4403931901</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>434351.4757931901</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>434351.4757931901</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>437829.0461931901</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>492248.2446931901</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>565496.7143931901</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>554950.1120931901</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>554950.1120931901</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>552381.1114931901</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>552550.8141931901</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>550671.56449319</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>553590.54489319</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>568854.36919319</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>558648.00549319</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>808782.00549319</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>808782.00549319</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>809750.9894931901</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>793370.7043931901</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>792449.6343931902</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>744035.6946931902</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>746397.4631931902</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>731326.9061931901</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>728114.7710931902</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>728298.6788931902</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>750639.1305931902</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>750639.1305931902</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>725807.9090931902</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>701853.9305931902</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>700730.8375931903</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>759359.3225931902</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>792983.8362931903</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>792983.8362931903</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>795308.5778931902</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>794408.9890931902</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>794223.0814931901</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>789776.7989931902</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>789776.7989931902</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>789776.7989931902</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>831500.4351931901</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>831500.4351931901</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>801983.6655931901</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>801983.6655931901</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>801863.9073931901</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>801426.1823931901</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>808429.3597931901</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>808770.3230931901</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>808698.0186931901</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>804038.1187931901</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>827259.9644931901</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>849613.95389319</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>849650.85759319</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>838555.09739319</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>837555.09739319</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>833773.5833931901</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>833096.1745931901</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>882435.3383931901</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>882439.38879319</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>873351.6791931901</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>873731.0993931901</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>863803.01255014</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>897062.16475014</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>897062.16475014</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>893578.0531501401</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>893855.6859501401</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>893355.5725501401</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>892393.75035014</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>892393.75035014</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>769908.9889501401</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>786326.4639501401</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>808780.67135014</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>811415.68275014</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>811415.68275014</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>814879.79705014</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>927176.7779501399</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>933067.6832582699</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>933069.6832582699</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>933069.6832582699</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>918062.8970582699</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>914900.00635827</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>898900.00635827</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>897909.57855827</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>897909.57855827</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>899384.42415827</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>900086.5858582701</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>901078.62085827</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>840474.34905827</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>840562.84905827</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>839555.35715827</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>840581.0479582699</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>840581.0479582699</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>842580.57995827</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>842580.57995827</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>807159.64325827</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>807159.64325827</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>812805.94174367</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>809805.94174367</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>810151.35724367</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>809966.6509436701</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>809977.6509436701</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>809977.6509436701</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>809436.6509436701</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>809436.6509436701</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>813905.5221436701</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>678471.9770436701</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>678473.9770436701</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>676473.9770436701</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>676584.8417886802</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>676576.8417886802</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>675965.4471886802</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>682235.4471886802</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>682248.7455886801</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>645005.2979886802</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>645625.6048886802</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>645625.6048886802</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>645692.6048886802</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>645010.8628886802</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>646061.5220886802</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>646068.5220886802</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>644191.4443886802</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>647905.6085886802</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>647024.9035886802</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>645740.1853886802</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>656475.7711466402</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>655449.2853466402</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>655449.2853466402</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>656481.9774466401</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>657595.6598466402</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>661791.3220466402</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>660484.5794466402</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>657401.1548466402</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>613559.4568466402</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>575211.7248466403</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>575211.7248466403</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>574195.5581466403</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>574195.5581466403</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>577150.4577874603</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>575470.2411874603</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>575470.2411874603</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>578854.9574430803</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>570692.0113430803</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>580692.0113430803</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>580692.0113430803</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>571326.5692466403</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>571326.5692466403</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>571246.5692466403</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>571616.6965466404</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>571616.6965466404</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>569788.8717466404</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>569788.8717466404</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>587294.6556868304</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>587294.6556868304</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>582080.1446868303</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>596862.3473270204</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>596178.8994270203</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>602748.8334270203</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>602695.8334270203</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>602695.8334270203</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>608972.2622270203</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>613941.6515270204</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>606815.9609270204</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>530868.2982270204</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>538554.4073270204</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>538554.4073270204</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>540239.9944270204</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>540239.9944270204</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>539227.9136270204</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>576996.9417446804</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>576996.9417446804</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>574605.1206446805</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>574605.1206446805</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>582964.3608446805</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>582956.5608446804</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>582956.5608446804</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>589059.5364544304</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>589257.6011544304</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>589257.6011544304</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>589232.6011544304</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>570507.0573544304</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>569241.6043544305</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>713379.2870544305</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>721534.7197544305</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>721534.7197544305</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>797055.5466544305</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>796874.3543544305</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>796801.4098544305</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>797405.2421544305</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>774127.4459544305</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>775044.4375544306</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>710219.5992544305</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>693867.4810544305</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>691120.4153544304</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>682343.2464544304</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>686753.0041544304</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>679499.0026544303</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>704098.4523544303</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>704098.4523544303</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>704098.4523544303</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>752350.3210544303</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>752350.3210544303</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>700420.3035544304</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>700920.3035544304</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>690695.7201544304</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>571639.8090590304</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>571639.8090590304</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>575888.0607698504</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>557587.0199698504</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>509317.0088698504</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>524674.2907698504</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>509115.6823698503</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>405355.5569698503</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>423666.2904698503</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>379997.4359698503</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>379997.4359698503</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>401694.7362890103</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>381658.3353391804</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>381658.3353391804</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>381658.3353391804</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>340511.6594391804</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>341235.2994391804</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>340554.1772391804</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>340554.1772391804</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>322562.3911391804</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>325443.7576635304</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>277966.2654635304</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1039430.21801798</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1007680.182246309</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1069303.26404631</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1087841.95934631</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-1090933.510246309</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-1072702.915846309</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1078801.505046309</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-1089719.41124631</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-1084352.51124631</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1095608.62464631</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-1071417.47235446</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-1024119.80381543</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-1032012.41731543</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-1009493.31737679</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-1164661.73549912</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-1150927.84849912</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-1179572.430799119</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-1172804.225099119</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-1182804.225099119</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-1124802.548699119</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-1124802.548699119</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-1164633.187199119</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-1145662.352399119</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1146755.047499119</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-1146755.047499119</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-1173281.673199119</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-1158535.253899119</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-1147179.465599119</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-1210409.166726509</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-1205965.744526509</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-1248398.760326509</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-1333088.544626509</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-1333088.544626509</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-1331287.179526509</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-1330193.622475199</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-1330563.622475199</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-1330563.622475199</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-1425082.281375199</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-1423854.135455689</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-1405485.161775199</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-1405485.161775199</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-1588882.301175199</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-1614782.045775199</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1591778.44280827</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1591826.60709796</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1591826.60709796</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-1590828.94207461</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-1596563.39977461</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-1595341.65067461</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-1595341.65067461</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-1601056.85537461</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-1573089.314174609</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-1534636.66627461</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-1498406.216874609</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-1501110.720074609</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-1500809.606874609</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-1500809.606874609</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-1495653.328874609</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-1505621.80167461</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-1505621.80167461</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-1507405.302974609</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-1557905.369287109</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-1557833.858387109</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-1557833.858387109</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-1562574.851627319</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-1562534.851627319</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1639921.540327319</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1700451.361227319</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1811656.497127319</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-2851445.236189449</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-2874251.942889449</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-2874251.942889449</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-2864301.404489449</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-2902348.559389449</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-2888150.883604099</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-3037785.044299029</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-3115016.602436779</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-3115016.602436779</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-3087121.353200979</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-3115159.531100979</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-3011110.357391709</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-2956016.368804398</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-2955657.054204398</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-2957353.870104398</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-2851490.607304398</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3123737.978604398</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-2958982.130604398</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-3011468.448525148</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-3011468.448525148</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-3095281.296125148</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-3088145.213225148</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-3088117.911039768</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-3112884.038954388</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-3112884.038954388</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-3101884.038954388</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-3097905.254054388</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-3098525.154554388</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-3136098.468254388</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-2990179.999154388</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-3025442.494154389</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-3020640.408854389</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-3018759.295235129</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-3044052.372335128</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-3041498.971535129</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-3041498.971535129</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-3048470.588535129</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-3028971.498035129</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-2971143.042335129</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-2826117.292135129</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-2832337.972835129</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-2831399.006335129</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-2830952.006335129</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-2880857.913335129</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-2898724.712002319</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-2994243.587202319</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-2994243.587202319</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-2982419.622902319</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3092667.561002319</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3086646.763702319</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-3052225.473172149</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-3035197.237972149</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3050184.839472149</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-2998923.891872148</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-3042708.788472149</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3082952.157772148</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3247135.612472149</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3712321.662474568</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3676294.361674569</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3693222.025874569</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-5998696.886752982</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-6143361.863676202</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-6071349.349617283</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-6070224.521917283</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-6067900.265117283</v>
       </c>
       <c r="H1134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-6070557.651617283</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-6070360.740917283</v>
       </c>
       <c r="H1136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-6085974.697017283</v>
       </c>
       <c r="H1137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-6082989.802317283</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-6189632.990217283</v>
       </c>
       <c r="H1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-6189632.990217283</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-6227354.397817283</v>
       </c>
       <c r="H1142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-6227354.397817283</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-6226419.999217283</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-6214818.623997813</v>
       </c>
       <c r="H1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-6219274.959197813</v>
       </c>
       <c r="H1146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-6219274.959197813</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-6179572.754790602</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-6180578.046290603</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-6232149.837590602</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-6217788.724990603</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-6241477.813190603</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-6219608.510190602</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-6299763.828890602</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-6392232.072590603</v>
       </c>
       <c r="H1155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-6387668.854138442</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-6433297.453938862</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-6591190.249338862</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-6671706.642838862</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-6548519.855303974</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-6533658.374103974</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-6573889.435303974</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-6573889.435303974</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
